--- a/Assets/06.Table/BonusRoulette.xlsx
+++ b/Assets/06.Table/BonusRoulette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBD0C2-41F9-4E26-9317-5CD7A03A3B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E9732-3189-41BA-A6F6-2E50D990DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4440" windowWidth="32070" windowHeight="12795" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BonusRoulette" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00000%"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +91,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -113,20 +122,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,7 +458,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -499,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1000000</v>
@@ -533,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -601,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -619,18 +635,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0BAE30-6B2F-4AAD-8A17-1C1B08B79490}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -655,23 +673,26 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="0">C2/$C$10</f>
+        <f t="shared" ref="G2:I9" si="0">C2/$C$10</f>
+        <v>0.32715376226826609</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -679,23 +700,26 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1000000</v>
       </c>
       <c r="E3">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
+        <v>0.32715376226826609</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -716,10 +740,13 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
+        <v>0.10905125408942203</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -727,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -740,10 +767,13 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
+        <v>5.4525627044711013E-2</v>
+      </c>
+      <c r="I5" s="2">
         <v>1.0256410256410256E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -764,10 +794,13 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
+        <v>0.10905125408942203</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -788,10 +821,13 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
+        <v>5.4525627044711013E-2</v>
+      </c>
+      <c r="I7" s="2">
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -812,10 +848,13 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
+        <v>1.0905125408942203E-2</v>
+      </c>
+      <c r="I8" s="2">
         <v>1.0256410256410256E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -823,7 +862,7 @@
         <v>2003</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -836,16 +875,22 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="I9" s="2">
         <v>5.1282051282051282E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>97.5</v>
+        <v>91.7</v>
       </c>
       <c r="G10" s="1">
         <f>SUM(G2:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
         <v>0.99999999999999989</v>
       </c>
     </row>

--- a/Assets/06.Table/BonusRoulette.xlsx
+++ b/Assets/06.Table/BonusRoulette.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E9732-3189-41BA-A6F6-2E50D990DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971DD90-1149-4788-A791-C49893D87B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00000%"/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1000000</v>
@@ -538,7 +538,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>1000</v>
       </c>
       <c r="E5">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>5000</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>10000</v>
       </c>
       <c r="E7">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>100000</v>
       </c>
       <c r="E8">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:I9" si="0">C2/$C$10</f>
+        <f t="shared" ref="G2:G9" si="0">C2/$C$10</f>
         <v>0.32715376226826609</v>
       </c>
       <c r="I2" s="2">
